--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_18.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_18.xlsx
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
